--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>113.9271086666667</v>
+        <v>62.15419033333333</v>
       </c>
       <c r="H2">
-        <v>341.781326</v>
+        <v>186.462571</v>
       </c>
       <c r="I2">
-        <v>0.4186548232357614</v>
+        <v>0.5307382952913039</v>
       </c>
       <c r="J2">
-        <v>0.5001257596740779</v>
+        <v>0.5798280707535227</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N2">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O2">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P2">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q2">
-        <v>17474.67849871171</v>
+        <v>5620.608818539828</v>
       </c>
       <c r="R2">
-        <v>157272.1064884053</v>
+        <v>50585.47936685846</v>
       </c>
       <c r="S2">
-        <v>0.3948976506349404</v>
+        <v>0.4582746659093435</v>
       </c>
       <c r="T2">
-        <v>0.4731910875049245</v>
+        <v>0.5019095651042691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>113.9271086666667</v>
+        <v>62.15419033333333</v>
       </c>
       <c r="H3">
-        <v>341.781326</v>
+        <v>186.462571</v>
       </c>
       <c r="I3">
-        <v>0.4186548232357614</v>
+        <v>0.5307382952913039</v>
       </c>
       <c r="J3">
-        <v>0.5001257596740779</v>
+        <v>0.5798280707535227</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P3">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q3">
-        <v>7.184395375331556</v>
+        <v>3.919526114673777</v>
       </c>
       <c r="R3">
-        <v>64.659558377984</v>
+        <v>35.275735032064</v>
       </c>
       <c r="S3">
-        <v>0.0001623549672264427</v>
+        <v>0.0003195773943207295</v>
       </c>
       <c r="T3">
-        <v>0.0001945438859415421</v>
+        <v>0.0003500061490032339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.9271086666667</v>
+        <v>62.15419033333333</v>
       </c>
       <c r="H4">
-        <v>341.781326</v>
+        <v>186.462571</v>
       </c>
       <c r="I4">
-        <v>0.4186548232357614</v>
+        <v>0.5307382952913039</v>
       </c>
       <c r="J4">
-        <v>0.5001257596740779</v>
+        <v>0.5798280707535227</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N4">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O4">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P4">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q4">
-        <v>652.0024884057542</v>
+        <v>588.4736986793383</v>
       </c>
       <c r="R4">
-        <v>5868.022395651788</v>
+        <v>5296.263288114044</v>
       </c>
       <c r="S4">
-        <v>0.0147341337866988</v>
+        <v>0.04798102774367599</v>
       </c>
       <c r="T4">
-        <v>0.01765536153168032</v>
+        <v>0.05254957028946533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>113.9271086666667</v>
+        <v>62.15419033333333</v>
       </c>
       <c r="H5">
-        <v>341.781326</v>
+        <v>186.462571</v>
       </c>
       <c r="I5">
-        <v>0.4186548232357614</v>
+        <v>0.5307382952913039</v>
       </c>
       <c r="J5">
-        <v>0.5001257596740779</v>
+        <v>0.5798280707535227</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N5">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O5">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P5">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q5">
-        <v>169.800722351386</v>
+        <v>48.53828939667616</v>
       </c>
       <c r="R5">
-        <v>1018.804334108316</v>
+        <v>291.229736380057</v>
       </c>
       <c r="S5">
-        <v>0.003837204005648608</v>
+        <v>0.003957554968725169</v>
       </c>
       <c r="T5">
-        <v>0.003065318711471483</v>
+        <v>0.002889583970765149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.9271086666667</v>
+        <v>62.15419033333333</v>
       </c>
       <c r="H6">
-        <v>341.781326</v>
+        <v>186.462571</v>
       </c>
       <c r="I6">
-        <v>0.4186548232357614</v>
+        <v>0.5307382952913039</v>
       </c>
       <c r="J6">
-        <v>0.5001257596740779</v>
+        <v>0.5798280707535227</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N6">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O6">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P6">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q6">
-        <v>222.2948022846173</v>
+        <v>247.81435073613</v>
       </c>
       <c r="R6">
-        <v>2000.653220561556</v>
+        <v>2230.32915662517</v>
       </c>
       <c r="S6">
-        <v>0.00502347984124719</v>
+        <v>0.02020546927523846</v>
       </c>
       <c r="T6">
-        <v>0.006019448040060083</v>
+        <v>0.02212934524001983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>75.631443</v>
       </c>
       <c r="I7">
-        <v>0.09264247631899748</v>
+        <v>0.2152737834352902</v>
       </c>
       <c r="J7">
-        <v>0.110670858845055</v>
+        <v>0.2351851819258409</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N7">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O7">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P7">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q7">
-        <v>3866.902754127181</v>
+        <v>2279.785981738354</v>
       </c>
       <c r="R7">
-        <v>34802.12478714462</v>
+        <v>20518.07383564518</v>
       </c>
       <c r="S7">
-        <v>0.08738534519826399</v>
+        <v>0.1858816709819289</v>
       </c>
       <c r="T7">
-        <v>0.1047105913643062</v>
+        <v>0.2035805065904531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>75.631443</v>
       </c>
       <c r="I8">
-        <v>0.09264247631899748</v>
+        <v>0.2152737834352902</v>
       </c>
       <c r="J8">
-        <v>0.110670858845055</v>
+        <v>0.2351851819258409</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P8">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q8">
         <v>1.589806545834667</v>
@@ -948,10 +948,10 @@
         <v>14.308258912512</v>
       </c>
       <c r="S8">
-        <v>3.592689101321342E-05</v>
+        <v>0.0001296244031873656</v>
       </c>
       <c r="T8">
-        <v>4.304985001019701E-05</v>
+        <v>0.0001419666690533168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>75.631443</v>
       </c>
       <c r="I9">
-        <v>0.09264247631899748</v>
+        <v>0.2152737834352902</v>
       </c>
       <c r="J9">
-        <v>0.110670858845055</v>
+        <v>0.2351851819258409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N9">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O9">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P9">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q9">
-        <v>144.2790617463926</v>
+        <v>238.691951741165</v>
       </c>
       <c r="R9">
-        <v>1298.511555717534</v>
+        <v>2148.227565670485</v>
       </c>
       <c r="S9">
-        <v>0.003260458412649158</v>
+        <v>0.01946167719030995</v>
       </c>
       <c r="T9">
-        <v>0.00390688539059525</v>
+        <v>0.02131473254234058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>75.631443</v>
       </c>
       <c r="I10">
-        <v>0.09264247631899748</v>
+        <v>0.2152737834352902</v>
       </c>
       <c r="J10">
-        <v>0.110670858845055</v>
+        <v>0.2351851819258409</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N10">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O10">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P10">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q10">
-        <v>37.57453282827301</v>
+        <v>19.6877091640135</v>
       </c>
       <c r="R10">
-        <v>225.447196969638</v>
+        <v>118.126254984081</v>
       </c>
       <c r="S10">
-        <v>0.0008491197556901757</v>
+        <v>0.001605231502661756</v>
       </c>
       <c r="T10">
-        <v>0.0006783123001971412</v>
+        <v>0.00117204972669093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>75.631443</v>
       </c>
       <c r="I11">
-        <v>0.09264247631899748</v>
+        <v>0.2152737834352902</v>
       </c>
       <c r="J11">
-        <v>0.110670858845055</v>
+        <v>0.2351851819258409</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N11">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O11">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P11">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q11">
-        <v>49.190740948162</v>
+        <v>100.51645669029</v>
       </c>
       <c r="R11">
-        <v>442.7166685334579</v>
+        <v>904.6481102126102</v>
       </c>
       <c r="S11">
-        <v>0.001111626061380942</v>
+        <v>0.008195579357202196</v>
       </c>
       <c r="T11">
-        <v>0.001332019939946239</v>
+        <v>0.008975926397302981</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>132.9889985</v>
+        <v>29.744252</v>
       </c>
       <c r="H12">
-        <v>265.977997</v>
+        <v>59.488504</v>
       </c>
       <c r="I12">
-        <v>0.4887027004452411</v>
+        <v>0.2539879212734059</v>
       </c>
       <c r="J12">
-        <v>0.3892033814808671</v>
+        <v>0.1849867473206364</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N12">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O12">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P12">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q12">
-        <v>20398.48127325558</v>
+        <v>2689.775286195174</v>
       </c>
       <c r="R12">
-        <v>122390.8876395335</v>
+        <v>16138.65171717104</v>
       </c>
       <c r="S12">
-        <v>0.4609705598831658</v>
+        <v>0.2193100268046286</v>
       </c>
       <c r="T12">
-        <v>0.3682425225678115</v>
+        <v>0.1601278423397025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>132.9889985</v>
+        <v>29.744252</v>
       </c>
       <c r="H13">
-        <v>265.977997</v>
+        <v>59.488504</v>
       </c>
       <c r="I13">
-        <v>0.4887027004452411</v>
+        <v>0.2539879212734059</v>
       </c>
       <c r="J13">
-        <v>0.3892033814808671</v>
+        <v>0.1849867473206364</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.189184</v>
       </c>
       <c r="O13">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P13">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q13">
-        <v>8.386463564074667</v>
+        <v>1.875712190122667</v>
       </c>
       <c r="R13">
-        <v>50.318781384448</v>
+        <v>11.254273140736</v>
       </c>
       <c r="S13">
-        <v>0.0001895196388782072</v>
+        <v>0.0001529356347367829</v>
       </c>
       <c r="T13">
-        <v>0.0001513961974368601</v>
+        <v>0.0001116649957325938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>132.9889985</v>
+        <v>29.744252</v>
       </c>
       <c r="H14">
-        <v>265.977997</v>
+        <v>59.488504</v>
       </c>
       <c r="I14">
-        <v>0.4887027004452411</v>
+        <v>0.2539879212734059</v>
       </c>
       <c r="J14">
-        <v>0.3892033814808671</v>
+        <v>0.1849867473206364</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N14">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O14">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P14">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q14">
-        <v>761.0932899761975</v>
+        <v>281.61753688718</v>
       </c>
       <c r="R14">
-        <v>4566.559739857185</v>
+        <v>1689.70522132308</v>
       </c>
       <c r="S14">
-        <v>0.01719939809752584</v>
+        <v>0.02296160198971336</v>
       </c>
       <c r="T14">
-        <v>0.01373959704430189</v>
+        <v>0.01676526986406907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>132.9889985</v>
+        <v>29.744252</v>
       </c>
       <c r="H15">
-        <v>265.977997</v>
+        <v>59.488504</v>
       </c>
       <c r="I15">
-        <v>0.4887027004452411</v>
+        <v>0.2539879212734059</v>
       </c>
       <c r="J15">
-        <v>0.3892033814808671</v>
+        <v>0.1849867473206364</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N15">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O15">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P15">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q15">
-        <v>198.2111920013505</v>
+        <v>23.228282819242</v>
       </c>
       <c r="R15">
-        <v>792.8447680054021</v>
+        <v>92.91313127696799</v>
       </c>
       <c r="S15">
-        <v>0.004479231709851198</v>
+        <v>0.001893911121073411</v>
       </c>
       <c r="T15">
-        <v>0.002385464825084698</v>
+        <v>0.0009218848945464688</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>132.9889985</v>
+        <v>29.744252</v>
       </c>
       <c r="H16">
-        <v>265.977997</v>
+        <v>59.488504</v>
       </c>
       <c r="I16">
-        <v>0.4887027004452411</v>
+        <v>0.2539879212734059</v>
       </c>
       <c r="J16">
-        <v>0.3892033814808671</v>
+        <v>0.1849867473206364</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N16">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O16">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P16">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q16">
-        <v>259.488399851197</v>
+        <v>118.59300970668</v>
       </c>
       <c r="R16">
-        <v>1556.930399107182</v>
+        <v>711.5580582400801</v>
       </c>
       <c r="S16">
-        <v>0.005863991115820084</v>
+        <v>0.009669445723253758</v>
       </c>
       <c r="T16">
-        <v>0.00468440084623218</v>
+        <v>0.007060085226585773</v>
       </c>
     </row>
   </sheetData>
